--- a/PagineHtml/3-Rotoli jumbo e mini-jumbo carta tissue industriale all'ingrosso | jumbo mini jumbo tissue paper rolls manufacturer supplier.xlsx
+++ b/PagineHtml/3-Rotoli jumbo e mini-jumbo carta tissue industriale all'ingrosso | jumbo mini jumbo tissue paper rolls manufacturer supplier.xlsx
@@ -690,22 +690,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rotolo salute di alta qualità all'ingrosso prezzo di fabbrica Mini rotolo Jumbo carta igienica carta igienica 2 strati miscela pasta di legno 15-19gsm 22-24cm</t>
+          <t>Carta igienica Mini Jumbo OEM fornitore 2400g pacchetto 5 strati di pasta vergine rotoli 165*110mm per ristoranti supermercati</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,6842-0,8575 €</t>
+          <t>0,2079-0,2426 €</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ordine minimo: 15.000 rulli</t>
+          <t>Ordine minimo: 2.000 rulli</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dongguan Winall Paper Co., Ltd.</t>
+          <t>Qingdao Shuncai Trading Co., Ltd.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -713,35 +713,39 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carta igienica Mini Jumbo OEM fornitore 2400g pacchetto 5 strati di pasta vergine rotoli 165*110mm per ristoranti supermercati</t>
+          <t>Rotoli di carta igienica Mini Jumbo all'ingrosso rotolo di carta velina vergine e Nupkin fabbricazione Maxi miglior toumet Premium confortevole</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,2079-0,2426 €</t>
+          <t>0,6063-0,6756 €</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ordine minimo: 2.000 rulli</t>
+          <t>Ordine minimo: 15.000 rulli</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Qingdao Shuncai Trading Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rotoli di carta igienica Mini Jumbo all'ingrosso rotolo di carta velina vergine e Nupkin fabbricazione Maxi miglior toumet Premium confortevole</t>
+          <t>Rotolo salute di alta qualità all'ingrosso prezzo di fabbrica Mini rotolo Jumbo carta igienica carta igienica 2 strati miscela pasta di legno 15-19gsm 22-24cm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,6063-0,6756 €</t>
+          <t>0,6842-0,8575 €</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -751,14 +755,10 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Qingdao Dongfang Jiarui Int'l Co., Ltd.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
+          <t>Dongguan Winall Paper Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
